--- a/tech.xls.xlsx
+++ b/tech.xls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -61,19 +61,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FF6B6149"/>
-        <rFont val="Hei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作列表</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF37302A"/>
         <rFont val="Hei"/>
@@ -348,9 +335,6 @@
     <t>《稀缺》</t>
   </si>
   <si>
-    <t>《JavaScript The Goodparts》</t>
-  </si>
-  <si>
     <t>《Unix编程艺术》</t>
   </si>
   <si>
@@ -434,10 +418,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>讲解泛泛</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>视频</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -504,6 +484,111 @@
   </si>
   <si>
     <t>tmux</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>format-distribution</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>《JavaScriptTheGoodparts》</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>golang-leveldb-dupcheck</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>binarydb</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码编写</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片简介</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否总结</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标帧数</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前帧数</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止总结</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片总结</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标功能</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前功能</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否重构</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止开发？</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF6B6149"/>
+        <rFont val="Hei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序员工作列表</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>autotest-framework</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.没有热情</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>《高扩展性网站的50条原则》</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -513,8 +598,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;￥&quot;* #,##0.00_);_(&quot;￥&quot;* \(#,##0.00\);_(&quot;￥&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;￥&quot;* #,##0.00_);_(&quot;￥&quot;* \(#,##0.00\);;_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;￥&quot;* #,##0.00_);_(&quot;￥&quot;* \(#,##0.00\);_(&quot;￥&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;￥&quot;* #,##0.00_);_(&quot;￥&quot;* \(#,##0.00\);;_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -719,11 +804,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -809,10 +900,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,15 +911,6 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -857,8 +939,17 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="64">
     <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="2" builtinId="17" customBuiltin="1"/>
@@ -890,6 +981,9 @@
     <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
@@ -917,8 +1011,11 @@
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -928,6 +1025,298 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Hei"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Hei"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Hei"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Hei"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Hei"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Hei"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -986,90 +1375,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Hei"/>
-        <scheme val="none"/>
-      </font>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Hei"/>
-        <scheme val="none"/>
-      </font>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1086,204 +1391,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Hei"/>
-        <scheme val="none"/>
-      </font>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Hei"/>
-        <scheme val="none"/>
-      </font>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Hei"/>
-        <scheme val="none"/>
-      </font>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Hei"/>
-        <scheme val="none"/>
-      </font>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1529,12 +1636,12 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Inventory Table" pivot="0" count="6">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
-      <tableStyleElement type="firstRowStripe" dxfId="28"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="totalRow" dxfId="32"/>
+      <tableStyleElement type="firstColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1609,20 +1716,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:K13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:K13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <autoFilter ref="A6:K13"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="技术跟踪" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" name="技术方向" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" name="当前水平" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" name="目标水平" dataDxfId="8" totalsRowDxfId="17"/>
-    <tableColumn id="11" name="计划开始时间" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="2" name="计划投入时间" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="1" name="技术跟踪" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" name="技术方向" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="4" name="当前水平" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" name="目标水平" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="11" name="计划开始时间" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" name="计划投入时间" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[当前水平]]*Table1[[#This Row],[目标水平]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="追加投入" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="7" name="追加日期" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="停止学习？" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="6" name="追加投入" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="7" name="追加日期" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="9" name="停止学习？" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="8" name="停止原因？" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="10" name="备注" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
@@ -1858,10 +1965,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1882,18 +1989,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="A1" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
@@ -1908,35 +2015,35 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="A3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="I3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" thickTop="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="I4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19" customHeight="1">
@@ -1950,180 +2057,180 @@
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1">
       <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="I6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="19" t="s">
-        <v>8</v>
+      <c r="B7" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="13">
         <v>42005</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="13">
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="19" t="s">
-        <v>16</v>
+      <c r="B8" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="E8" s="13">
         <v>39448</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="19" t="s">
-        <v>17</v>
+      <c r="B9" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="13">
         <v>40910</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="13">
         <v>2</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="13">
         <v>42007</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="13">
         <v>3</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="13">
         <v>42008</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="13">
         <v>4</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="9"/>
@@ -2131,51 +2238,51 @@
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="13">
         <v>41279</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="13">
         <v>5</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="13">
         <v>42375</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="13">
         <v>6</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -2184,163 +2291,163 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="B15" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26" t="s">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26" t="s">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26" t="s">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="B21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26" t="s">
+    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1"/>
     <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="D28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="E28" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>89</v>
+      <c r="L28" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="26">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="26">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
-      <c r="L30" s="20" t="s">
-        <v>35</v>
+      <c r="L30" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="26">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="L31" s="21" t="s">
-        <v>36</v>
+      <c r="L31" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2349,222 +2456,371 @@
         <v>630</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>82</v>
+        <v>38</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="15" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1">
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="15" customHeight="1">
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="15" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="15" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1">
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="15" customHeight="1">
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="15" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="15" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="1">
+        <v>200</v>
+      </c>
+      <c r="D48" s="1">
+        <v>510</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="B49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="1">
+        <v>50</v>
+      </c>
+      <c r="D49" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="B50" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="B49" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="B50" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:12">
+      <c r="B51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="B53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="B54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="B57" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="58" spans="1:12">
+      <c r="B58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
+    </row>
+    <row r="61" spans="1:12" ht="15" customHeight="1">
+      <c r="A61" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J61" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K61" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="L61" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="B63" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="B64" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1">
+      <c r="A67" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="L67" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="B68" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="B60" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="B61" s="1" t="s">
+    <row r="69" spans="1:12">
+      <c r="B69" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="B70" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="B71" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2575,13 +2831,23 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G7:G13">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(D7&lt;=G7,I7="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(D28&lt;=G28,I28="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(D61&lt;=G61,I61="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(D28&lt;=G28,I28="")</formula>
+      <formula>AND(D67&lt;=G67,I67="")</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
